--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dadafoxking/Green-Bond/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E24401-D0D6-684D-B0EF-719275B898E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B19BDF-D88C-5348-9B2B-5DEE441197B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{0CBE9634-7530-C541-991C-23353CE42892}"/>
   </bookViews>
@@ -28,36 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="47">
   <si>
     <t>AAPL US EQUITY</t>
-  </si>
-  <si>
-    <t>Return on Assets</t>
-  </si>
-  <si>
-    <t>Gross Margin</t>
-  </si>
-  <si>
-    <t>GICS Industry Group</t>
-  </si>
-  <si>
-    <t>Assets/Equity</t>
-  </si>
-  <si>
-    <t>Asset Turnover</t>
-  </si>
-  <si>
-    <t>Return on Invested Capital</t>
-  </si>
-  <si>
-    <t>Tobin's Q Ratio</t>
-  </si>
-  <si>
-    <t>Profit Margin</t>
-  </si>
-  <si>
-    <t>Total GHG Emissions</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
   </si>
   <si>
     <t>Year</t>
@@ -139,9 +109,6 @@
     <t>REG US EQUITY</t>
   </si>
   <si>
-    <t>GICS Sector</t>
-  </si>
-  <si>
     <t>#N/A N/A</t>
   </si>
   <si>
@@ -170,6 +137,39 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>Return_on_Assets</t>
+  </si>
+  <si>
+    <t>Gross_Margin</t>
+  </si>
+  <si>
+    <t>GICS_Industry_Group</t>
+  </si>
+  <si>
+    <t>Asset_Turnover</t>
+  </si>
+  <si>
+    <t>Return_on_Invested_Capital</t>
+  </si>
+  <si>
+    <t>Profit_Margin</t>
+  </si>
+  <si>
+    <t>Total_GHG_Emissions</t>
+  </si>
+  <si>
+    <t>Total_Assets</t>
+  </si>
+  <si>
+    <t>GICS_Sector</t>
+  </si>
+  <si>
+    <t>Tobins_Q_Ratio</t>
+  </si>
+  <si>
+    <t>AssetsEquityRatio</t>
   </si>
 </sst>
 </file>
@@ -684,39 +684,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2389E2-A928-FB47-895E-961990486F74}">
   <dimension ref="A1:I261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5">
         <v>18.006599999999999</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8">
         <v>38.588000000000001</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8">
         <v>2.0783999999999998</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C6" s="8">
         <v>0.83309999999999995</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8">
         <v>29.546399999999998</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8">
         <v>3.0680999999999998</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8">
         <v>21.6144</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8">
         <v>363.39699999999999</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8">
         <v>231839</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8">
         <v>9.5053000000000001</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8">
         <v>63.886000000000003</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C15" s="8">
         <v>1.4417</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8">
         <v>0.43269999999999997</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8">
         <v>11.3307</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C18" s="8">
         <v>2.5575000000000001</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8">
         <v>21.967500000000001</v>
@@ -1219,13 +1219,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C21" s="8">
         <v>6859.69</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C22" s="8">
         <v>1.9376</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C23" s="8">
         <v>18.4818</v>
@@ -1319,13 +1319,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C25" s="8">
         <v>5.2634999999999996</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C26" s="8">
         <v>0.40629999999999999</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C27" s="8">
         <v>7.7237999999999998</v>
@@ -1417,10 +1417,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C28" s="8">
         <v>1.1391</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C29" s="8">
         <v>4.7693000000000003</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C30" s="8">
         <v>75550.398000000001</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C31" s="8">
         <v>38966</v>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D32" s="8">
         <v>2.0369999999999999</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C33" s="8">
         <v>77.742199999999997</v>
@@ -1575,13 +1575,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C35" s="8">
         <v>2.0406</v>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D36" s="8">
         <v>0.19400000000000001</v>
@@ -1642,13 +1642,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D37" s="8">
         <v>4.0391000000000004</v>
@@ -1667,10 +1667,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C38" s="8">
         <v>0.8962</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C39" s="8">
         <v>6.2514000000000003</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D40" s="8">
         <v>2001.93</v>
@@ -1742,10 +1742,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C41" s="8">
         <v>30743</v>
@@ -1767,10 +1767,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C42" s="8">
         <v>1.2968</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1813,13 +1813,13 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C45" s="8">
         <v>2.0811000000000002</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C46" s="8">
         <v>9.2799999999999994E-2</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C47" s="8">
         <v>2.4468999999999999</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C48" s="8">
         <v>1.3540000000000001</v>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C49" s="8">
         <v>13.974</v>
@@ -1975,22 +1975,22 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G50" s="8">
         <v>204.14599999999999</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C51" s="8">
         <v>8136.0360000000001</v>
@@ -2033,10 +2033,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C52" s="8">
         <v>0.26240000000000002</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C55" s="8">
         <v>8.6439000000000004</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C56" s="8">
         <v>4.5999999999999999E-2</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C57" s="8">
         <v>0.96099999999999997</v>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C58" s="8">
         <v>0.9829</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C59" s="8">
         <v>6.4264999999999999</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C60" s="8">
         <v>1333.29</v>
@@ -2270,10 +2270,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C61" s="8">
         <v>2104534</v>
@@ -2299,13 +2299,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D62" s="8">
         <v>-36.443399999999997</v>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C63" s="8">
         <v>-45.789499999999997</v>
@@ -2357,13 +2357,13 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -2374,10 +2374,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C65" s="8">
         <v>5.5408999999999997</v>
@@ -2403,13 +2403,13 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D66" s="8">
         <v>0.18479999999999999</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D67" s="8">
         <v>-53.999600000000001</v>
@@ -2461,22 +2461,22 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G68" s="8">
         <v>1.8112999999999999</v>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C69" s="8">
         <v>-87.698899999999995</v>
@@ -2519,13 +2519,13 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C71" s="8">
         <v>926.90800000000002</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C72" s="8">
         <v>0.39269999999999999</v>
@@ -2594,13 +2594,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -2611,13 +2611,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C75" s="8">
         <v>8.702</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C76" s="8">
         <v>4.8800000000000003E-2</v>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C77" s="8">
         <v>1.8429</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C78" s="8">
         <v>0.98040000000000005</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C79" s="8">
         <v>8.0410000000000004</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C80" s="8">
         <v>924.25199999999995</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C81" s="8">
         <v>1842181</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C82" s="8">
         <v>-3.3984999999999999</v>
@@ -2860,10 +2860,10 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C83" s="8">
         <v>50.982199999999999</v>
@@ -2889,13 +2889,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -2906,10 +2906,10 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C85" s="8">
         <v>3.4279999999999999</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C86" s="8">
         <v>0.32</v>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C87" s="8">
         <v>-23.1539</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C88" s="8">
         <v>2.3530000000000002</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C89" s="8">
         <v>-10.620699999999999</v>
@@ -3051,16 +3051,16 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E90" s="8">
         <v>1536.21</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C91" s="8">
         <v>7781.9780000000001</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C92" s="8">
         <v>3.7538999999999998</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -3155,13 +3155,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -3172,10 +3172,10 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C95" s="8">
         <v>2.5099</v>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C96" s="8">
         <v>0.1565</v>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C97" s="8">
         <v>6.8158000000000003</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C98" s="8">
         <v>2.6631</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C99" s="8">
         <v>23.9815</v>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C101" s="8">
         <v>4546.87</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C102" s="8">
         <v>1.216</v>
@@ -3392,13 +3392,13 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C105" s="8">
         <v>3.6808000000000001</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C106" s="8">
         <v>5.7299999999999997E-2</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C107" s="8">
         <v>1.3973</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C108" s="8">
         <v>1.1051</v>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C109" s="8">
         <v>21.219200000000001</v>
@@ -3571,19 +3571,19 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F110" s="8">
         <v>6.4000000000000001E-2</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C111" s="8">
         <v>1008.682</v>
@@ -3629,10 +3629,10 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C112" s="8">
         <v>0.87180000000000002</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -3692,10 +3692,10 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C115" s="8">
         <v>11.087999999999999</v>
@@ -3721,10 +3721,10 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C116" s="8">
         <v>4.1300000000000003E-2</v>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C117" s="8">
         <v>2.7559</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C118" s="8">
         <v>1.008</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C119" s="8">
         <v>22.862500000000001</v>
@@ -3837,10 +3837,10 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C120" s="8">
         <v>1162.77</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C121" s="8">
         <v>2573126</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C122" s="8">
         <v>4.2560000000000002</v>
@@ -3924,13 +3924,13 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -3941,13 +3941,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -3958,10 +3958,10 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C125" s="8">
         <v>2.0550999999999999</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C126" s="8">
         <v>9.98E-2</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C127" s="8">
         <v>5.1886999999999999</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C128" s="8">
         <v>1.6386000000000001</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C129" s="8">
         <v>42.660499999999999</v>
@@ -4103,10 +4103,10 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C130" s="8">
         <v>65.512</v>
@@ -4132,10 +4132,10 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C131" s="9">
         <v>10261.4</v>
@@ -4161,19 +4161,19 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F132" s="8">
         <v>9.7201000000000004</v>
@@ -4190,16 +4190,16 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E133" s="8">
         <v>33.4343</v>
@@ -4219,13 +4219,13 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -4236,22 +4236,22 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G135" s="8">
         <v>1.3511</v>
@@ -4265,19 +4265,19 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F136" s="8">
         <v>0.80020000000000002</v>
@@ -4294,19 +4294,19 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F137" s="8">
         <v>1423.9211</v>
@@ -4323,22 +4323,22 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G138" s="8">
         <v>3.3056999999999999</v>
@@ -4352,16 +4352,16 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E139" s="8">
         <v>17.834199999999999</v>
@@ -4381,13 +4381,13 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -4398,16 +4398,16 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E141" s="9">
         <v>372.1</v>
@@ -4427,10 +4427,10 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C142" s="8">
         <v>2.9758</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C143" s="8">
         <v>18.555099999999999</v>
@@ -4485,13 +4485,13 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -4502,10 +4502,10 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C145" s="8">
         <v>2.0219999999999998</v>
@@ -4531,10 +4531,10 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C146" s="8">
         <v>0.69259999999999999</v>
@@ -4560,10 +4560,10 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C147" s="8">
         <v>7.0914999999999999</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C148" s="8">
         <v>1.0608</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C149" s="8">
         <v>4.2965999999999998</v>
@@ -4647,10 +4647,10 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C150" s="8">
         <v>4050.66</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C151" s="8">
         <v>7542</v>
@@ -4705,10 +4705,10 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C152" s="8">
         <v>8.8020999999999994</v>
@@ -4734,10 +4734,10 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C153" s="8">
         <v>53.154499999999999</v>
@@ -4763,13 +4763,13 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
@@ -4780,10 +4780,10 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C155" s="8">
         <v>4.0180999999999996</v>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C156" s="8">
         <v>0.9012</v>
@@ -4838,10 +4838,10 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C157" s="8">
         <v>13.6008</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C158" s="8">
         <v>2.8014000000000001</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C159" s="8">
         <v>9.7670999999999992</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C160" s="8">
         <v>5855</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C161" s="8">
         <v>70509</v>
@@ -4983,10 +4983,10 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C162" s="8">
         <v>-73.891900000000007</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C163" s="8">
         <v>-7.5697000000000001</v>
@@ -5037,13 +5037,13 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
@@ -5054,10 +5054,10 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C165" s="8">
         <v>1.2805</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C166" s="8">
         <v>0.53639999999999999</v>
@@ -5108,10 +5108,10 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C167" s="8">
         <v>-74.757999999999996</v>
@@ -5135,10 +5135,10 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C168" s="8">
         <v>2.8468</v>
@@ -5162,10 +5162,10 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C169" s="8">
         <v>-137.76740000000001</v>
@@ -5189,13 +5189,13 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
@@ -5206,10 +5206,10 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C171" s="8">
         <v>204.15100000000001</v>
@@ -5233,10 +5233,10 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C172" s="8">
         <v>1.2578</v>
@@ -5262,13 +5262,13 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
@@ -5279,13 +5279,13 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
@@ -5296,10 +5296,10 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C175" s="8">
         <v>7.4894999999999996</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C176" s="8">
         <v>4.8899999999999999E-2</v>
@@ -5354,10 +5354,10 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C177" s="8">
         <v>4.3109000000000002</v>
@@ -5383,10 +5383,10 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C178" s="8">
         <v>1.0206</v>
@@ -5412,10 +5412,10 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C179" s="8">
         <v>27.213000000000001</v>
@@ -5441,10 +5441,10 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C180" s="8">
         <v>421.13200000000001</v>
@@ -5470,10 +5470,10 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C181" s="8">
         <v>345072</v>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C182" s="8">
         <v>0.18429999999999999</v>
@@ -5528,13 +5528,13 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
@@ -5545,13 +5545,13 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
@@ -5562,10 +5562,10 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C185" s="8">
         <v>18.103300000000001</v>
@@ -5591,10 +5591,10 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C186" s="8">
         <v>7.22E-2</v>
@@ -5620,10 +5620,10 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C187" s="8">
         <v>3.6791</v>
@@ -5649,10 +5649,10 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C188" s="8">
         <v>0.99919999999999998</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C189" s="8">
         <v>2.5524</v>
@@ -5707,10 +5707,10 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C190" s="8">
         <v>74.906000000000006</v>
@@ -5736,10 +5736,10 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C191" s="8">
         <v>766655</v>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="C192" s="8">
         <v>4.6208</v>
@@ -5794,13 +5794,13 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
@@ -5811,13 +5811,13 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
@@ -5828,10 +5828,10 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C195" s="8">
         <v>2.1674000000000002</v>
@@ -5857,10 +5857,10 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C196" s="8">
         <v>0.1326</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C197" s="8">
         <v>5.3958000000000004</v>
@@ -5915,10 +5915,10 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C198" s="8">
         <v>2.0468000000000002</v>
@@ -5944,10 +5944,10 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C199" s="8">
         <v>34.837499999999999</v>
@@ -5973,10 +5973,10 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C200" s="8">
         <v>32.847000000000001</v>
@@ -6002,10 +6002,10 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C201" s="10">
         <v>4197.17</v>
@@ -6031,10 +6031,10 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C202" s="8">
         <v>2.2635999999999998</v>
@@ -6060,13 +6060,13 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
@@ -6077,13 +6077,13 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
@@ -6094,10 +6094,10 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C205" s="8">
         <v>2.2623000000000002</v>
@@ -6123,10 +6123,10 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C206" s="8">
         <v>0.12</v>
@@ -6152,10 +6152,10 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C207" s="8">
         <v>2.1861000000000002</v>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C208" s="8">
         <v>1.7577</v>
@@ -6210,10 +6210,10 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C209" s="8">
         <v>18.866199999999999</v>
@@ -6239,13 +6239,13 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
@@ -6256,10 +6256,10 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C211" s="8">
         <v>6828.7280000000001</v>
@@ -6285,10 +6285,10 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C212" s="8">
         <v>14.5938</v>
@@ -6314,13 +6314,13 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
@@ -6331,13 +6331,13 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C215" s="8">
         <v>1.407</v>
@@ -6377,10 +6377,10 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C216" s="8">
         <v>0.34089999999999998</v>
@@ -6406,10 +6406,10 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C217" s="8">
         <v>17.322500000000002</v>
@@ -6435,10 +6435,10 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C218" s="8">
         <v>3.7081</v>
@@ -6464,10 +6464,10 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C219" s="8">
         <v>42.812199999999997</v>
@@ -6493,10 +6493,10 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C220" s="8">
         <v>84.230999999999995</v>
@@ -6522,10 +6522,10 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C221" s="8">
         <v>38569</v>
@@ -6551,10 +6551,10 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C222" s="8">
         <v>10.391500000000001</v>
@@ -6578,10 +6578,10 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C223" s="8">
         <v>48.552300000000002</v>
@@ -6605,13 +6605,13 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C225" s="8">
         <v>1.7484</v>
@@ -6649,10 +6649,10 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C226" s="8">
         <v>1.1787000000000001</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C227" s="8">
         <v>18.416899999999998</v>
@@ -6703,10 +6703,10 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C228" s="8">
         <v>3.6709999999999998</v>
@@ -6730,10 +6730,10 @@
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C229" s="8">
         <v>8.8161000000000005</v>
@@ -6757,13 +6757,13 @@
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D230" s="8">
         <v>258.815</v>
@@ -6784,10 +6784,10 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C231" s="9">
         <v>9845.2999999999993</v>
@@ -6811,10 +6811,10 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C232" s="8">
         <v>3.7989999999999999</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C233" s="8">
         <v>60.7087</v>
@@ -6869,13 +6869,13 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
@@ -6886,10 +6886,10 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C235" s="8">
         <v>17.0091</v>
@@ -6915,10 +6915,10 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C236" s="8">
         <v>0.50160000000000005</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C237" s="8">
         <v>9.0726999999999993</v>
@@ -6973,10 +6973,10 @@
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C238" s="8">
         <v>1.7827</v>
@@ -7002,10 +7002,10 @@
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C239" s="8">
         <v>7.5739999999999998</v>
@@ -7031,10 +7031,10 @@
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C240" s="9">
         <v>5939.1</v>
@@ -7060,10 +7060,10 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C241" s="8">
         <v>232616</v>
@@ -7089,10 +7089,10 @@
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C242" s="8">
         <v>2.1318999999999999</v>
@@ -7118,13 +7118,13 @@
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
@@ -7135,13 +7135,13 @@
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C245" s="8">
         <v>1.841</v>
@@ -7181,10 +7181,10 @@
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C246" s="8">
         <v>0.13919999999999999</v>
@@ -7210,10 +7210,10 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C247" s="8">
         <v>3.1143000000000001</v>
@@ -7239,10 +7239,10 @@
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C248" s="8">
         <v>1.5092000000000001</v>
@@ -7268,10 +7268,10 @@
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C249" s="8">
         <v>15.3177</v>
@@ -7297,10 +7297,10 @@
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C250" s="8">
         <v>162.26900000000001</v>
@@ -7326,10 +7326,10 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C251" s="8">
         <v>24962.922999999999</v>
@@ -7355,10 +7355,10 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C252" s="8">
         <v>6.9276999999999997</v>
@@ -7384,10 +7384,10 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C253" s="8">
         <v>38.636400000000002</v>
@@ -7413,13 +7413,13 @@
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D254" s="8"/>
       <c r="E254" s="8"/>
@@ -7430,10 +7430,10 @@
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C255" s="8">
         <v>2.2722000000000002</v>
@@ -7459,10 +7459,10 @@
     </row>
     <row r="256" spans="1:9">
       <c r="A256" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C256" s="8">
         <v>0.80500000000000005</v>
@@ -7488,10 +7488,10 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C257" s="8">
         <v>10.6669</v>
@@ -7517,10 +7517,10 @@
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C258" s="8">
         <v>1.9959</v>
@@ -7546,10 +7546,10 @@
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C259" s="8">
         <v>8.6057000000000006</v>
@@ -7575,10 +7575,10 @@
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C260" s="8">
         <v>82.033000000000001</v>
@@ -7604,10 +7604,10 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C261" s="8">
         <v>4833</v>
